--- a/data/trans_orig/P21D_6_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D_6_R-Provincia-trans_orig.xlsx
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3107</v>
+        <v>3545</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007101405428901332</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02240294567161982</v>
+        <v>0.02555611585881688</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>3568</v>
+        <v>3982</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003361914430450384</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01217927673526445</v>
+        <v>0.01359211912462057</v>
       </c>
     </row>
     <row r="5">
@@ -817,7 +817,7 @@
         <v>137724</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>135602</v>
+        <v>135164</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>138709</v>
@@ -826,7 +826,7 @@
         <v>0.9928985945710989</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9775970543283802</v>
+        <v>0.974443884141183</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -838,7 +838,7 @@
         <v>292011</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>289428</v>
+        <v>289014</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>292996</v>
@@ -847,7 +847,7 @@
         <v>0.9966380855695497</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9878207232647352</v>
+        <v>0.9864078808753779</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -942,19 +942,19 @@
         <v>5056</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1779</v>
+        <v>1258</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13671</v>
+        <v>13367</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02290682247253868</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008060462242538905</v>
+        <v>0.005699252103944317</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06193573676337032</v>
+        <v>0.06055621148275838</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -963,19 +963,19 @@
         <v>2509</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6195</v>
+        <v>5815</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.009973256430126903</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002427808302172037</v>
+        <v>0.002446537481552352</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02462834463472004</v>
+        <v>0.02311798518154904</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -984,19 +984,19 @@
         <v>7565</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3460</v>
+        <v>3711</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15171</v>
+        <v>15735</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.01601828789780158</v>
+        <v>0.01601828789780157</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007327253141735274</v>
+        <v>0.007857180622244855</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03212450123138228</v>
+        <v>0.03331977837708704</v>
       </c>
     </row>
     <row r="8">
@@ -1013,19 +1013,19 @@
         <v>215673</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>207058</v>
+        <v>207362</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>218950</v>
+        <v>219471</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9770931775274613</v>
+        <v>0.9770931775274612</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9380642632366295</v>
+        <v>0.9394437885172414</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.991939537757461</v>
+        <v>0.9943007478960555</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>320</v>
@@ -1034,19 +1034,19 @@
         <v>249019</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>245333</v>
+        <v>245713</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>250917</v>
+        <v>250913</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9900267435698732</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.97537165536528</v>
+        <v>0.976882014818451</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.997572191697828</v>
+        <v>0.9975534625184476</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>475</v>
@@ -1055,19 +1055,19 @@
         <v>464692</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>457086</v>
+        <v>456522</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>468797</v>
+        <v>468546</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9839817121021984</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9678754987686178</v>
+        <v>0.9666802216229132</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9926727468582649</v>
+        <v>0.9921428193777552</v>
       </c>
     </row>
     <row r="9">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6915</v>
+        <v>6338</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01982282143177352</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07431360545780871</v>
+        <v>0.0681144661322976</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -1180,19 +1180,19 @@
         <v>9237</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5574</v>
+        <v>5338</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14763</v>
+        <v>14452</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06311729849370373</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03808893890138924</v>
+        <v>0.03647735071509407</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1008802254915748</v>
+        <v>0.09875333227146045</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -1201,19 +1201,19 @@
         <v>11081</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6786</v>
+        <v>6911</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17738</v>
+        <v>17513</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04628867629100391</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02834600705755639</v>
+        <v>0.02886797860742847</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07409630323774991</v>
+        <v>0.0731550835564594</v>
       </c>
     </row>
     <row r="11">
@@ -1230,16 +1230,16 @@
         <v>91209</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>86139</v>
+        <v>86716</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>93054</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9801771785682263</v>
+        <v>0.9801771785682264</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9256863945421919</v>
+        <v>0.9318855338677025</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1251,19 +1251,19 @@
         <v>137105</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>131579</v>
+        <v>131890</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>140768</v>
+        <v>141004</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9368827015062963</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8991197745084255</v>
+        <v>0.9012466677285397</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9619110610986108</v>
+        <v>0.9635226492849061</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>319</v>
@@ -1272,19 +1272,19 @@
         <v>228315</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>221658</v>
+        <v>221883</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>232610</v>
+        <v>232485</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9537113237089961</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9259036967622505</v>
+        <v>0.9268449164435406</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9716539929424448</v>
+        <v>0.9711320213925715</v>
       </c>
     </row>
     <row r="12">
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6767</v>
+        <v>6620</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.009919438104449388</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03878678922330315</v>
+        <v>0.03794507407686153</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>4264</v>
+        <v>4065</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.005877308392097803</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02116115099238707</v>
+        <v>0.02017059316764292</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -1418,19 +1418,19 @@
         <v>2915</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>857</v>
+        <v>1029</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>6950</v>
+        <v>7738</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.007752972594582009</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.002279712603440438</v>
+        <v>0.002736326232184937</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01848652004395102</v>
+        <v>0.02058161584940636</v>
       </c>
     </row>
     <row r="14">
@@ -1447,16 +1447,16 @@
         <v>172729</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>167693</v>
+        <v>167840</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>174460</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9900805618955507</v>
+        <v>0.9900805618955505</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9612132107766967</v>
+        <v>0.962054925923139</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1468,16 +1468,16 @@
         <v>200324</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>197244</v>
+        <v>197443</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>201508</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9941226916079022</v>
+        <v>0.9941226916079023</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9788388490076129</v>
+        <v>0.9798294068323575</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1489,19 +1489,19 @@
         <v>373053</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>369018</v>
+        <v>368230</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>375111</v>
+        <v>374939</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.992247027405418</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9815134799560489</v>
+        <v>0.9794183841505933</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9977202873965574</v>
+        <v>0.9972636737678149</v>
       </c>
     </row>
     <row r="15">
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>2206</v>
+        <v>3279</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.004483637754365417</v>
@@ -1787,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01939889324492587</v>
+        <v>0.02883484309125303</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1</v>
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>2769</v>
+        <v>2564</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.002119458207756886</v>
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01151230415152338</v>
+        <v>0.01065838269150948</v>
       </c>
     </row>
     <row r="20">
@@ -1838,7 +1838,7 @@
         <v>113206</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>111510</v>
+        <v>110437</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>113716</v>
@@ -1847,7 +1847,7 @@
         <v>0.9955163622456346</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9806011067550748</v>
+        <v>0.9711651569087472</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -1859,7 +1859,7 @@
         <v>240052</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>237793</v>
+        <v>237998</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>240562</v>
@@ -1868,7 +1868,7 @@
         <v>0.9978805417922431</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9884876958484765</v>
+        <v>0.9893416173084905</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -1976,19 +1976,19 @@
         <v>5890</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2709</v>
+        <v>2606</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12734</v>
+        <v>13248</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01653540537778926</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.007606726842257007</v>
+        <v>0.007315907617203753</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03575073036004023</v>
+        <v>0.03719530181638685</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>7</v>
@@ -1997,19 +1997,19 @@
         <v>5890</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2182</v>
+        <v>2146</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>11401</v>
+        <v>12276</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.008318796074611999</v>
+        <v>0.008318796074611997</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.003082421758801459</v>
+        <v>0.003031710132626174</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01610365328752703</v>
+        <v>0.01733917757752539</v>
       </c>
     </row>
     <row r="23">
@@ -2039,19 +2039,19 @@
         <v>350289</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>343445</v>
+        <v>342931</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>353470</v>
+        <v>353573</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9834645946222109</v>
+        <v>0.9834645946222107</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9642492696399598</v>
+        <v>0.9628046981836128</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9923932731577428</v>
+        <v>0.992684092382795</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>713</v>
@@ -2060,19 +2060,19 @@
         <v>702093</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>696582</v>
+        <v>695707</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>705801</v>
+        <v>705837</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9916812039253881</v>
+        <v>0.9916812039253877</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9838963467124724</v>
+        <v>0.9826608224224744</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9969175782411983</v>
+        <v>0.9969682898673738</v>
       </c>
     </row>
     <row r="24">
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>3462</v>
+        <v>2829</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.001508521078092439</v>
@@ -2189,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.008489971317272681</v>
+        <v>0.006937827502740678</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1</v>
@@ -2201,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3113</v>
+        <v>3093</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.000800456610365752</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.004050910597882438</v>
+        <v>0.004025209459617612</v>
       </c>
     </row>
     <row r="26">
@@ -2240,7 +2240,7 @@
         <v>407114</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>404267</v>
+        <v>404900</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>407729</v>
@@ -2249,7 +2249,7 @@
         <v>0.9984914789219074</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.991510028682727</v>
+        <v>0.9930621724972593</v>
       </c>
       <c r="P26" s="6" t="n">
         <v>1</v>
@@ -2261,7 +2261,7 @@
         <v>767781</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>765283</v>
+        <v>765303</v>
       </c>
       <c r="T26" s="5" t="n">
         <v>768396</v>
@@ -2270,7 +2270,7 @@
         <v>0.9991995433896343</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9959490894021175</v>
+        <v>0.9959747905403823</v>
       </c>
       <c r="W26" s="6" t="n">
         <v>1</v>
@@ -2365,19 +2365,19 @@
         <v>8631</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3755</v>
+        <v>4142</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>16366</v>
+        <v>17806</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.005510759032703635</v>
+        <v>0.005510759032703634</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.002397390635716575</v>
+        <v>0.002644483169476934</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01044900739447415</v>
+        <v>0.01136871582769895</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>32</v>
@@ -2386,19 +2386,19 @@
         <v>20929</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>14484</v>
+        <v>13730</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>30403</v>
+        <v>29100</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01234686822717714</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.008544719195993726</v>
+        <v>0.008099540965630434</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01793577330558031</v>
+        <v>0.01716700591517368</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>40</v>
@@ -2407,19 +2407,19 @@
         <v>29560</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>20731</v>
+        <v>20701</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>40154</v>
+        <v>40222</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.009063833169075669</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.006356458853345961</v>
+        <v>0.006347353080238895</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0123121623970247</v>
+        <v>0.01233277765215794</v>
       </c>
     </row>
     <row r="29">
@@ -2436,19 +2436,19 @@
         <v>1557637</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1549902</v>
+        <v>1548462</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1562513</v>
+        <v>1562126</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9944892409672965</v>
+        <v>0.9944892409672963</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.989550992605526</v>
+        <v>0.9886312841723013</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9976026093642835</v>
+        <v>0.9973555168305236</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2341</v>
@@ -2457,19 +2457,19 @@
         <v>1674169</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1664695</v>
+        <v>1665998</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1680614</v>
+        <v>1681368</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.9876531317728229</v>
+        <v>0.9876531317728228</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9820642266944197</v>
+        <v>0.9828329940848263</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9914552808040062</v>
+        <v>0.9919004590343695</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3791</v>
@@ -2478,19 +2478,19 @@
         <v>3231805</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3221211</v>
+        <v>3221143</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3240634</v>
+        <v>3240664</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9909361668309242</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9876878376029756</v>
+        <v>0.987667222347842</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9936435411466541</v>
+        <v>0.9936526469197612</v>
       </c>
     </row>
     <row r="30">
